--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.109780333333333</v>
+        <v>0.052798</v>
       </c>
       <c r="N2">
-        <v>3.329341</v>
+        <v>0.158394</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="Q2">
-        <v>166.5063702570635</v>
+        <v>8.971206858286001</v>
       </c>
       <c r="R2">
-        <v>1498.557332313572</v>
+        <v>80.740861724574</v>
       </c>
       <c r="S2">
-        <v>0.4152507364956075</v>
+        <v>0.06152590465020416</v>
       </c>
       <c r="T2">
-        <v>0.4152507364956074</v>
+        <v>0.06152590465020417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.382243</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>205.146729</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.109780333333333</v>
+        <v>0.328319</v>
       </c>
       <c r="N3">
-        <v>3.329341</v>
+        <v>0.9849570000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8614651143874453</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8614651143874454</v>
       </c>
       <c r="Q3">
-        <v>75.889268430621</v>
+        <v>55.78653859058301</v>
       </c>
       <c r="R3">
-        <v>683.0034158755891</v>
+        <v>502.0788473152471</v>
       </c>
       <c r="S3">
-        <v>0.1892604742946246</v>
+        <v>0.3825925885232467</v>
       </c>
       <c r="T3">
-        <v>0.1892604742946246</v>
+        <v>0.3825925885232468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H4">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I4">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J4">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.109780333333333</v>
+        <v>0.052798</v>
       </c>
       <c r="N4">
-        <v>3.329341</v>
+        <v>0.158394</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="Q4">
-        <v>42.34693137251334</v>
+        <v>3.610445665914</v>
       </c>
       <c r="R4">
-        <v>381.12238235262</v>
+        <v>32.494010993226</v>
       </c>
       <c r="S4">
-        <v>0.105609139239639</v>
+        <v>0.02476098693238782</v>
       </c>
       <c r="T4">
-        <v>0.105609139239639</v>
+        <v>0.02476098693238782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.737245</v>
+        <v>68.382243</v>
       </c>
       <c r="H5">
-        <v>314.211735</v>
+        <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.289879649970129</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.2898796499701289</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.109780333333333</v>
+        <v>0.328319</v>
       </c>
       <c r="N5">
-        <v>3.329341</v>
+        <v>0.9849570000000001</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8614651143874453</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8614651143874454</v>
       </c>
       <c r="Q5">
-        <v>116.235334668515</v>
+        <v>22.451189639517</v>
       </c>
       <c r="R5">
-        <v>1046.118012016635</v>
+        <v>202.060706755653</v>
       </c>
       <c r="S5">
-        <v>0.289879649970129</v>
+        <v>0.1539736821215697</v>
       </c>
       <c r="T5">
-        <v>0.2898796499701289</v>
+        <v>0.1539736821215697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H6">
+        <v>159.823902</v>
+      </c>
+      <c r="I6">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J6">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.052798</v>
+      </c>
+      <c r="N6">
+        <v>0.158394</v>
+      </c>
+      <c r="O6">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="P6">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="Q6">
+        <v>2.812794125932</v>
+      </c>
+      <c r="R6">
+        <v>25.315147133388</v>
+      </c>
+      <c r="S6">
+        <v>0.01929057103759734</v>
+      </c>
+      <c r="T6">
+        <v>0.01929057103759734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H7">
+        <v>159.823902</v>
+      </c>
+      <c r="I7">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J7">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.328319</v>
+      </c>
+      <c r="N7">
+        <v>0.9849570000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8614651143874453</v>
+      </c>
+      <c r="P7">
+        <v>0.8614651143874454</v>
+      </c>
+      <c r="Q7">
+        <v>17.491074560246</v>
+      </c>
+      <c r="R7">
+        <v>157.419671042214</v>
+      </c>
+      <c r="S7">
+        <v>0.1199564565417804</v>
+      </c>
+      <c r="T7">
+        <v>0.1199564565417804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H8">
+        <v>273.054848</v>
+      </c>
+      <c r="I8">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J8">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.052798</v>
+      </c>
+      <c r="N8">
+        <v>0.158394</v>
+      </c>
+      <c r="O8">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="P8">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="Q8">
+        <v>4.805583288234667</v>
+      </c>
+      <c r="R8">
+        <v>43.250249594112</v>
+      </c>
+      <c r="S8">
+        <v>0.03295742299236534</v>
+      </c>
+      <c r="T8">
+        <v>0.03295742299236534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H9">
+        <v>273.054848</v>
+      </c>
+      <c r="I9">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J9">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.328319</v>
+      </c>
+      <c r="N9">
+        <v>0.9849570000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8614651143874453</v>
+      </c>
+      <c r="P9">
+        <v>0.8614651143874454</v>
+      </c>
+      <c r="Q9">
+        <v>29.88303154683733</v>
+      </c>
+      <c r="R9">
+        <v>268.947283921536</v>
+      </c>
+      <c r="S9">
+        <v>0.2049423872008485</v>
+      </c>
+      <c r="T9">
+        <v>0.2049423872008485</v>
       </c>
     </row>
   </sheetData>
